--- a/backend/0. Personal Details.xlsx
+++ b/backend/0. Personal Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheryl_malfoy/Desktop/Import files for SingHealth Testing/NEW DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63920554-62DE-B74E-8A89-A3F5B8E368C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32949188-0986-384B-A6D3-039825D63686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="1640" windowWidth="16860" windowHeight="15040" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="O23" sqref="O23"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/backend/0. Personal Details.xlsx
+++ b/backend/0. Personal Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheryl_malfoy/Desktop/Import files for SingHealth Testing/NEW DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32949188-0986-384B-A6D3-039825D63686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5918ACEF-B1B3-B145-ADBC-22722C906C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="1640" windowWidth="16860" windowHeight="15040" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
   <si>
     <t>Employee ID/ MOHH Employee No</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>M12346B</t>
+  </si>
+  <si>
+    <t>Employee_Image</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,26 @@
     <cellStyle name="Normal 141" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1358,38 +1380,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table11" displayName="Table11" ref="A1:AD26" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Employee ID/ MOHH Employee No" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MCR No" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Staff Name" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Designation" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Programme" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Year of Training" dataDxfId="24"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Academic Year" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Department" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Institution" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Academic Clinical Programme" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Employment Status" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nationality" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Date of Birth" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gender" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Registration Type" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="House/ Blk No" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Street" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Building Name" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Unit No" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Postal Code" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Contact No (Work)" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Contact No (Personal)" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Email (Official)" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Email (Personal)" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="BCLS Expiry Date" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ACLS Expiry Date" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="COVID-19 Vaccination Status" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Date of First Dose" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Date of Second Dose" dataDxfId="1"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Vaccination Remarks" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table11" displayName="Table11" ref="A1:AE26" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Employee ID/ MOHH Employee No" dataDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{32A89172-2195-AD4E-BC78-6B4CCBFB5894}" name="Employee_Image" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MCR No" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Staff Name" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Designation" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Programme" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Year of Training" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Academic Year" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Department" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Institution" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Academic Clinical Programme" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Employment Status" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nationality" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Date of Birth" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gender" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Registration Type" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="House/ Blk No" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Street" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Building Name" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Unit No" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Postal Code" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Contact No (Work)" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Contact No (Personal)" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Email (Official)" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Email (Personal)" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="BCLS Expiry Date" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ACLS Expiry Date" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="COVID-19 Vaccination Status" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Date of First Dose" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Date of Second Dose" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Vaccination Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1695,1500 +1718,1521 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="O23" sqref="O23"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="6"/>
-    <col min="3" max="3" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11" style="6"/>
-    <col min="15" max="15" width="18" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="11" style="6"/>
-    <col min="20" max="20" width="13" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.33203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="16" style="6" customWidth="1"/>
-    <col min="24" max="24" width="17" style="6" customWidth="1"/>
-    <col min="25" max="26" width="17.6640625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.5" style="6" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="20.83203125" style="6" customWidth="1"/>
-    <col min="31" max="16384" width="11" style="6"/>
+    <col min="2" max="2" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="28" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11" style="6"/>
+    <col min="16" max="16" width="18" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11" style="6"/>
+    <col min="21" max="21" width="13" style="6" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="16" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17" style="6" customWidth="1"/>
+    <col min="26" max="27" width="17.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="27.1640625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="6" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="20.83203125" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>2022</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>33772</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10">
+      <c r="U2" s="10">
         <v>574711</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Z2" s="12">
         <v>44266</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AC2" s="5">
         <v>44285</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AD2" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2022</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>33458</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <v>120715</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12">
         <v>44547</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>44286</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AD3" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>2022</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="12">
+      <c r="N4" s="12">
         <v>34370</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="10">
+      <c r="U4" s="10">
         <v>158744</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Z4" s="12">
         <v>44582</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>44223</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD4" s="5">
         <v>44244</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>2022</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <v>33433</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>529773</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Z5" s="12">
         <v>44233</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AA5" s="12">
         <v>44312</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>44272</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>44293</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>2022</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>33190</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>570231</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Z6" s="12">
         <v>44395</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="AA6" s="12">
         <v>44442</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <v>44236</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="5">
         <v>44257</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>2022</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>32823</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="10">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
         <v>248038</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <v>92343989</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="W7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>44237</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="5">
         <v>44258</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>2022</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>33808</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>737765</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="V8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="10"/>
+      <c r="X8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <v>44238</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AD8" s="5">
         <v>44259</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>2022</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>32903</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="10">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>587999</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <v>98208673</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="10"/>
+      <c r="X9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Z9" s="12">
         <v>44534</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="4" t="s">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <v>44239</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AD9" s="5">
         <v>44260</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>2022</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <v>32788</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>798555</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <v>98738253</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="10"/>
+      <c r="X10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Z10" s="12">
         <v>44435</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <v>44240</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AD10" s="5">
         <v>44261</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>2022</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>32909</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="P11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="R11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>560588</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="V11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="10"/>
+      <c r="X11" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Z11" s="12">
         <v>44279</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="AA11" s="12">
         <v>44541</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <v>44241</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AD11" s="5">
         <v>44262</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>2022</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>33821</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="R12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="T12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="U12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="10"/>
+      <c r="X12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="4" t="s">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>44242</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>44263</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>2022</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="12">
         <v>32028</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="R13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="10">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10">
         <v>800990</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="W13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="X13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="4" t="s">
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <v>44243</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <v>44264</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>2022</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <v>33577</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="P14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="10">
+      <c r="T14" s="10"/>
+      <c r="U14" s="10">
         <v>536644</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="10"/>
+      <c r="W14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="X14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AC14" s="5">
         <v>44244</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AD14" s="5">
         <v>44265</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2022</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>32022</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="10"/>
+      <c r="T15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>369422</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="s">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <v>44245</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <v>44266</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>2022</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>34013</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="P16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="R16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="10"/>
+      <c r="T16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>678948</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="X16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <v>44246</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AD16" s="5">
         <v>44267</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>2022</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>730331</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <v>90259925</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="W17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="X17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AC17" s="5">
         <v>44247</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AD17" s="5">
         <v>44268</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>2022</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>32798</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <v>807697</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="V18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="X18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AC18" s="5">
         <v>44248</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AD18" s="5">
         <v>44269</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M19" s="7"/>
-      <c r="W19" s="9"/>
+    <row r="19" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="7"/>
+      <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="7"/>
-      <c r="W20" s="9"/>
+    <row r="20" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="7"/>
+      <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M21" s="7"/>
-      <c r="W21" s="9"/>
+    <row r="21" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="7"/>
+      <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
-      <c r="W22" s="9"/>
+    <row r="22" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="7"/>
+      <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
-      <c r="W23" s="9"/>
+    <row r="23" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="7"/>
+      <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M24" s="7"/>
-      <c r="W24" s="9"/>
+    <row r="24" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="7"/>
+      <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M25" s="7"/>
-      <c r="W25" s="9"/>
+    <row r="25" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="7"/>
+      <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M26" s="7"/>
-      <c r="W26" s="9"/>
+    <row r="26" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="7"/>
+      <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M27" s="7"/>
+    <row r="27" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="W3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="W4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="W5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="W7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="W8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="W9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="W10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="W11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="W12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="W13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="W14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="W15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="W16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="W17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="W18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="X2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="X4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="X5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="X6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="X7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="X9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="X11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="X13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="X15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="X17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
